--- a/Output/Supplementary/IHM_self_reported_race.xlsx
+++ b/Output/Supplementary/IHM_self_reported_race.xlsx
@@ -391,17 +391,17 @@
         </is>
       </c>
       <c r="B2">
-        <v>80853</v>
+        <v>80852</v>
       </c>
       <c r="C2">
         <v>29033</v>
       </c>
       <c r="D2">
-        <v>0.359083769309735</v>
+        <v>0.359088210557562</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29033/80853 (36%)</t>
+          <t>29033/80852 (36%)</t>
         </is>
       </c>
     </row>
